--- a/biology/Botanique/Basilic_perpétuel/Basilic_perpétuel.xlsx
+++ b/biology/Botanique/Basilic_perpétuel/Basilic_perpétuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basilic_perp%C3%A9tuel</t>
+          <t>Basilic_perpétuel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ocimum kilimandscharicum
 Le basilic perpétuel (Ocimum kilimandscharicum) est une espèce de plantes vivaces de la famille des Lamiaceae. Originaire d'Afrique de l'Est, cette plante est largement cultivée pour ses feuilles aromatiques utilisées en cuisine et en médecine traditionnelle.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Basilic_perp%C3%A9tuel</t>
+          <t>Basilic_perpétuel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le basilic perpétuel est une plante herbacée qui peut atteindre une hauteur d'environ un mètre.
 Elle possède des tiges dressées et ramifiées, ainsi que des feuilles opposées de forme ovale, mesurant environ 5 à 8 cm long. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Basilic_perp%C3%A9tuel</t>
+          <t>Basilic_perpétuel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le basilic perpétuel est une plante relativement facile à cultiver. Elle préfère un sol bien drainé, riche en matière organique et une exposition ensoleillée.
 Cette plante est sensible au froid (mais moins que le basilic romain) et peut être cultivée en tant que plante annuelle dans les régions aux hivers rigoureux. Dans les régions plus chaudes, elle peut être cultivée comme une plante vivace. La multiplication peut se faire par graines ou par bouturage.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basilic_perp%C3%A9tuel</t>
+          <t>Basilic_perpétuel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le basilic perpétuel est principalement cultivé pour ses feuilles aromatiques. Ces feuilles dégagent une saveur intense, rappelant celle du basilic commun (Ocimum basilicum), mais avec des notes plus épicées. Elles sont souvent utilisées dans la cuisine pour aromatiser les plats, notamment les salades, les soupes, les sauces et les plats à base de viande ou de poisson. Les feuilles fraîches peuvent également être utilisées pour préparer des infusions ou des tisanes.
 En plus de son utilisation culinaire, le basilic perpétuel a également des propriétés médicinales. Il est connu pour ses propriétés antioxydantes, antimicrobiennes et anti-inflammatoires. Dans certaines cultures, il est utilisé pour soulager les maux d'estomac, les troubles digestifs et les douleurs articulaires. Cependant, il est important de noter que les informations sur les propriétés médicinales du basilic perpétuel sont principalement basées sur des connaissances traditionnelles et nécessitent des recherches scientifiques supplémentaires pour être confirmées.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basilic_perp%C3%A9tuel</t>
+          <t>Basilic_perpétuel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Intérêt mellifère</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus de sa beauté visuelle, le basilic perpétuel présente un intérêt mellifère important. Les fleurs de la plante sont riches en nectar, attirant ainsi les abeilles et d'autres insectes pollinisateurs. Cela en fait une plante précieuse dans les jardins écologiques et les zones favorables à l'apiculture. De plus, le nectar des fleurs peut être utilisé par les abeilles pour produire un miel au goût délicat et subtil.
 </t>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basilic_perp%C3%A9tuel</t>
+          <t>Basilic_perpétuel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,10 +661,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Ocimum kilimandscharicum Baker ex Gürke, 1895[1].
-Ocimum kilimandscharicum a pour synonymes[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Ocimum kilimandscharicum Baker ex Gürke, 1895.
+Ocimum kilimandscharicum a pour synonymes :
 Ocimum johnstonii Baker
 Ocimum tortuosum Baker</t>
         </is>
